--- a/_testing/output/tablex_test4.xlsx
+++ b/_testing/output/tablex_test4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="23">
   <si>
     <t>Test 4: Custom Formatting</t>
   </si>
@@ -88,7 +88,483 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="114">
+  <fonts count="227">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <b/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -578,7 +1054,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="80">
+  <borders count="159">
     <border>
       <left/>
       <right/>
@@ -1115,11 +1591,540 @@
       <bottom style="medium"/>
       <diagonal style="none"/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="medium"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium"/>
+      <top style="none"/>
+      <bottom style="medium"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1422,6 +2427,310 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="113" fillId="0" borderId="79" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="84" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="85" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="86" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="87" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="88" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="89" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="90" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="91" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="92" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="93" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="94" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="95" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="96" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="97" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="98" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="99" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="100" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="101" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="102" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="103" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="104" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="105" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="106" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="107" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="108" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="109" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="110" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="111" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="112" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="113" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="114" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="115" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="116" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="117" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="118" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="119" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="120" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="121" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="122" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="123" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="124" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="125" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="126" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="127" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="128" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="129" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="130" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="131" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="132" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="133" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="134" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="135" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="136" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="137" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="138" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="139" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="140" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="141" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="142" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="143" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="144" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="145" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="146" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="147" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="148" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="149" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="150" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="151" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="152" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="153" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="154" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="155" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="156" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="157" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="158" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1440,134 +2749,134 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="true"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="true"/>
-    <col min="3" max="4" width="23.7109375" style="4" customWidth="true"/>
+    <col min="1" max="1" width="2.7109375" style="81" customWidth="true"/>
+    <col min="2" max="2" width="17.7109375" style="82" customWidth="true"/>
+    <col min="3" max="4" width="23.7109375" style="83" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="30" customHeight="true">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="80" customFormat="true" ht="30" customHeight="true">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="100" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="130" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="131" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="143" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="146" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="149" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="152" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="155" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="157" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="158" t="s">
         <v>22</v>
       </c>
     </row>
